--- a/data/coffee-angola/coffee-angola-eco.xlsx
+++ b/data/coffee-angola/coffee-angola-eco.xlsx
@@ -5,20 +5,20 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="Study id" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Stages description" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Actor types" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Farm gate price In final price" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Flow by actor type" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="AFA Translations" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Indicator by actor type" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Imported And exported goods" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Direct value added receivers" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Employment" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Account by actor type" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Study id" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Stages description" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Actor types" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Farm gate price In final price" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="Flow by actor type" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="AFA Translations" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="Indicator by actor type" sheetId="7" state="visible" r:id="rId9"/>
+    <sheet name="Imported And exported goods" sheetId="8" state="visible" r:id="rId10"/>
+    <sheet name="Direct value added receivers" sheetId="9" state="visible" r:id="rId11"/>
+    <sheet name="Employment" sheetId="10" state="visible" r:id="rId12"/>
+    <sheet name="Account by actor type" sheetId="11" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -605,44 +605,48 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -658,262 +662,368 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="52.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="52.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.38"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <v>9200</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <v>3794103039.21622</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="1" t="n">
         <f aca="false">B11*100/D12</f>
         <v>0.245098678881402</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D12" s="4" t="n">
         <v>1547990000000</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="1" t="n">
         <f aca="false">B11*100/D13</f>
         <v>0.158693704339834</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="3" t="n">
+      <c r="D13" s="4" t="n">
         <v>2390834000000</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="1" t="n">
         <f aca="false">B11*100/D14</f>
         <v>85.3997623391086</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="3" t="n">
+      <c r="D14" s="4" t="n">
         <v>4442755969.44925</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="1" t="n">
         <v>0.0676552957686746</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="4" t="n">
         <v>60486451.7766232</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="5" t="n">
+      <c r="B18" s="6" t="n">
         <v>2.3</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="4" t="n">
         <v>2413475766.48895</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="1" t="n">
         <v>0.976</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22" s="1" t="n">
         <v>0.97</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23" s="1" t="n">
         <v>0.41</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -929,7 +1039,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
@@ -939,420 +1049,420 @@
       <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="25.12"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="L2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="0" t="s">
+      <c r="B2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="L3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="0" t="s">
+      <c r="C3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>6.71666666666667</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="J4" s="0" t="n">
+      <c r="C4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J4" s="1" t="n">
         <v>0.631812480739599</v>
       </c>
-      <c r="K4" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="L4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="0" t="s">
+      <c r="K4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="F5" s="0" t="n">
+      <c r="B5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5" s="1" t="n">
         <v>2.14766788917604</v>
       </c>
-      <c r="G5" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="L5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="0" t="s">
+      <c r="G5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="J6" s="0" t="n">
+      <c r="B6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J6" s="1" t="n">
         <v>0.433322073028919</v>
       </c>
-      <c r="K6" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="L6" s="0" t="n">
+      <c r="K6" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="L6" s="1" t="n">
         <v>0.0481468989961151</v>
       </c>
-      <c r="M6" s="0" t="s">
+      <c r="M6" s="1" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>1189.45</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="L7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="0" t="s">
+      <c r="C7" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>1742</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="L8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="0" t="s">
+      <c r="C8" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="L8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="F9" s="0" t="n">
+      <c r="B9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F9" s="1" t="n">
         <v>8.65777972027973</v>
       </c>
-      <c r="G9" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="L9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="0" t="s">
+      <c r="G9" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="L9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="F10" s="0" t="n">
+      <c r="B10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F10" s="1" t="n">
         <v>3.79293206793208</v>
       </c>
-      <c r="G10" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="L10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="0" t="s">
+      <c r="G10" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="L10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>141</v>
       </c>
     </row>
@@ -1368,7 +1478,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
@@ -1378,1555 +1488,1555 @@
       <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>383</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D2" s="0" t="s">
+      <c r="C2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>384</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D3" s="0" t="s">
+      <c r="C3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <v>21149999.95875</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>385</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D4" s="0" t="s">
+      <c r="C4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="1" t="n">
         <v>23083334</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>386</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D5" s="0" t="s">
+      <c r="C5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="1" t="n">
         <v>18008181.8181818</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>387</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D6" s="0" t="s">
+      <c r="C6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>388</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D7" s="0" t="s">
+      <c r="C7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>389</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D8" s="0" t="s">
+      <c r="C8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>390</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D9" s="0" t="s">
+      <c r="C9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="1" t="n">
         <v>106012451.298701</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>391</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D10" s="0" t="s">
+      <c r="C10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>392</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D11" s="0" t="s">
+      <c r="C11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>383</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D12" s="0" t="s">
+      <c r="C12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12" s="1" t="n">
         <v>87500000</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>384</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D13" s="0" t="s">
+      <c r="C13" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13" s="1" t="n">
         <v>92230400</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>385</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D14" s="0" t="s">
+      <c r="C14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14" s="1" t="n">
         <v>60120000</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>386</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D15" s="0" t="s">
+      <c r="C15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15" s="1" t="n">
         <v>1126912000</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>387</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D16" s="0" t="s">
+      <c r="C16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16" s="1" t="n">
         <v>1387130227.27273</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <v>388</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D17" s="0" t="s">
+      <c r="C17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17" s="1" t="n">
         <v>1890274187.99407</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <v>389</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D18" s="0" t="s">
+      <c r="C18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18" s="1" t="n">
         <v>2392412138.10134</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="1" t="n">
         <v>390</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D19" s="0" t="s">
+      <c r="C19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19" s="1" t="n">
         <v>357976928.571429</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="1" t="n">
         <v>391</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D20" s="0" t="s">
+      <c r="C20" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20" s="1" t="n">
         <v>789710910.701299</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="1" t="n">
         <v>392</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D21" s="0" t="s">
+      <c r="C21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="1" t="n">
         <v>383</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D22" s="0" t="s">
+      <c r="C22" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="A23" s="1" t="n">
         <v>384</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D23" s="0" t="s">
+      <c r="C23" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+      <c r="A24" s="1" t="n">
         <v>385</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D24" s="0" t="s">
+      <c r="C24" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="A25" s="1" t="n">
         <v>386</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D25" s="0" t="s">
+      <c r="C25" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="A26" s="1" t="n">
         <v>387</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D26" s="0" t="s">
+      <c r="C26" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E26" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="A27" s="1" t="n">
         <v>388</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D27" s="0" t="s">
+      <c r="C27" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E27" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="A28" s="1" t="n">
         <v>389</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D28" s="0" t="s">
+      <c r="C28" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E28" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+      <c r="A29" s="1" t="n">
         <v>390</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D29" s="0" t="s">
+      <c r="C29" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E29" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+      <c r="A30" s="1" t="n">
         <v>391</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D30" s="0" t="s">
+      <c r="C30" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E30" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+      <c r="A31" s="1" t="n">
         <v>392</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D31" s="0" t="s">
+      <c r="C31" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+      <c r="A32" s="1" t="n">
         <v>383</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D32" s="0" t="s">
+      <c r="C32" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="E32" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+      <c r="A33" s="1" t="n">
         <v>384</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D33" s="0" t="s">
+      <c r="C33" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="E33" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+      <c r="A34" s="1" t="n">
         <v>385</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D34" s="0" t="s">
+      <c r="C34" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="E34" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+      <c r="A35" s="1" t="n">
         <v>386</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D35" s="0" t="s">
+      <c r="C35" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="E35" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
+      <c r="A36" s="1" t="n">
         <v>387</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D36" s="0" t="s">
+      <c r="C36" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E36" s="0" t="n">
+      <c r="E36" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
+      <c r="A37" s="1" t="n">
         <v>388</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D37" s="0" t="s">
+      <c r="C37" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E37" s="0" t="n">
+      <c r="E37" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
+      <c r="A38" s="1" t="n">
         <v>389</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D38" s="0" t="s">
+      <c r="C38" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E38" s="0" t="n">
+      <c r="E38" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
+      <c r="A39" s="1" t="n">
         <v>390</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D39" s="0" t="s">
+      <c r="C39" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E39" s="0" t="n">
+      <c r="E39" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
+      <c r="A40" s="1" t="n">
         <v>391</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C40" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D40" s="0" t="s">
+      <c r="C40" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E40" s="0" t="n">
+      <c r="E40" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
+      <c r="A41" s="1" t="n">
         <v>392</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C41" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D41" s="0" t="s">
+      <c r="C41" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E41" s="0" t="n">
+      <c r="E41" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
+      <c r="A42" s="1" t="n">
         <v>383</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D42" s="0" t="s">
+      <c r="C42" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E42" s="0" t="n">
+      <c r="E42" s="1" t="n">
         <v>56600000</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
+      <c r="A43" s="1" t="n">
         <v>384</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D43" s="0" t="s">
+      <c r="C43" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E43" s="0" t="n">
+      <c r="E43" s="1" t="n">
         <v>40984600.04125</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
+      <c r="A44" s="1" t="n">
         <v>385</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C44" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D44" s="0" t="s">
+      <c r="C44" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E44" s="0" t="n">
+      <c r="E44" s="1" t="n">
         <v>11896666</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
+      <c r="A45" s="1" t="n">
         <v>386</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C45" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D45" s="0" t="s">
+      <c r="C45" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E45" s="0" t="n">
+      <c r="E45" s="1" t="n">
         <v>43619818.1818182</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
+      <c r="A46" s="1" t="n">
         <v>387</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D46" s="0" t="s">
+      <c r="C46" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E46" s="0" t="n">
+      <c r="E46" s="1" t="n">
         <v>290632045.454546</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
+      <c r="A47" s="1" t="n">
         <v>388</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C47" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D47" s="0" t="s">
+      <c r="C47" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E47" s="0" t="n">
+      <c r="E47" s="1" t="n">
         <v>170511142.505597</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
+      <c r="A48" s="1" t="n">
         <v>389</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C48" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D48" s="0" t="s">
+      <c r="C48" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E48" s="0" t="n">
+      <c r="E48" s="1" t="n">
         <v>264805336.303759</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
+      <c r="A49" s="1" t="n">
         <v>390</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D49" s="0" t="s">
+      <c r="C49" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E49" s="0" t="n">
+      <c r="E49" s="1" t="n">
         <v>352059954.545455</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="n">
+      <c r="A50" s="1" t="n">
         <v>391</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C50" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D50" s="0" t="s">
+      <c r="C50" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E50" s="0" t="n">
+      <c r="E50" s="1" t="n">
         <v>516362489.298701</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="n">
+      <c r="A51" s="1" t="n">
         <v>392</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C51" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D51" s="0" t="s">
+      <c r="C51" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E51" s="0" t="n">
+      <c r="E51" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="n">
+      <c r="A52" s="1" t="n">
         <v>383</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C52" s="0" t="s">
+      <c r="C52" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D52" s="0" t="s">
+      <c r="D52" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E52" s="0" t="n">
+      <c r="E52" s="1" t="n">
         <v>640000000</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="n">
+      <c r="A53" s="1" t="n">
         <v>384</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="C53" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D53" s="0" t="s">
+      <c r="D53" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E53" s="0" t="n">
+      <c r="E53" s="1" t="n">
         <v>511500000</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="n">
+      <c r="A54" s="1" t="n">
         <v>385</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C54" s="0" t="s">
+      <c r="C54" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D54" s="0" t="s">
+      <c r="D54" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E54" s="0" t="n">
+      <c r="E54" s="1" t="n">
         <v>115200000</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="n">
+      <c r="A55" s="1" t="n">
         <v>386</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C55" s="0" t="s">
+      <c r="C55" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D55" s="0" t="s">
+      <c r="D55" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E55" s="0" t="n">
+      <c r="E55" s="1" t="n">
         <v>1276580000</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="n">
+      <c r="A56" s="1" t="n">
         <v>387</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C56" s="0" t="s">
+      <c r="C56" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D56" s="0" t="s">
+      <c r="D56" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E56" s="0" t="n">
+      <c r="E56" s="1" t="n">
         <v>2070940909.09091</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="n">
+      <c r="A57" s="1" t="n">
         <v>388</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C57" s="0" t="s">
+      <c r="C57" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D57" s="0" t="s">
+      <c r="D57" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E57" s="0" t="n">
+      <c r="E57" s="1" t="n">
         <v>2141194016.27042</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="n">
+      <c r="A58" s="1" t="n">
         <v>389</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="B58" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C58" s="0" t="s">
+      <c r="C58" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D58" s="0" t="s">
+      <c r="D58" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E58" s="0" t="n">
+      <c r="E58" s="1" t="n">
         <v>3062128696.72198</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="n">
+      <c r="A59" s="1" t="n">
         <v>390</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C59" s="0" t="s">
+      <c r="C59" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D59" s="0" t="s">
+      <c r="D59" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E59" s="0" t="n">
+      <c r="E59" s="1" t="n">
         <v>986162337.662338</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="n">
+      <c r="A60" s="1" t="n">
         <v>391</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C60" s="0" t="s">
+      <c r="C60" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D60" s="0" t="s">
+      <c r="D60" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E60" s="0" t="n">
+      <c r="E60" s="1" t="n">
         <v>1380627272.72727</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="n">
+      <c r="A61" s="1" t="n">
         <v>392</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B61" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C61" s="0" t="s">
+      <c r="C61" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D61" s="0" t="s">
+      <c r="D61" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E61" s="0" t="n">
+      <c r="E61" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="n">
+      <c r="A62" s="1" t="n">
         <v>383</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="B62" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C62" s="0" t="s">
+      <c r="C62" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D62" s="0" t="s">
+      <c r="D62" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E62" s="0" t="n">
+      <c r="E62" s="1" t="n">
         <v>27000000</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="n">
+      <c r="A63" s="1" t="n">
         <v>384</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="B63" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C63" s="0" t="s">
+      <c r="C63" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D63" s="0" t="s">
+      <c r="D63" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E63" s="0" t="n">
+      <c r="E63" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="n">
+      <c r="A64" s="1" t="n">
         <v>385</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C64" s="0" t="s">
+      <c r="C64" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D64" s="0" t="s">
+      <c r="D64" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E64" s="0" t="n">
+      <c r="E64" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="n">
+      <c r="A65" s="1" t="n">
         <v>386</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="B65" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C65" s="0" t="s">
+      <c r="C65" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D65" s="0" t="s">
+      <c r="D65" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E65" s="0" t="n">
+      <c r="E65" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="n">
+      <c r="A66" s="1" t="n">
         <v>387</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B66" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C66" s="0" t="s">
+      <c r="C66" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D66" s="0" t="s">
+      <c r="D66" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E66" s="0" t="n">
+      <c r="E66" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="n">
+      <c r="A67" s="1" t="n">
         <v>388</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B67" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C67" s="0" t="s">
+      <c r="C67" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D67" s="0" t="s">
+      <c r="D67" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E67" s="0" t="n">
+      <c r="E67" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="n">
+      <c r="A68" s="1" t="n">
         <v>389</v>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="B68" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C68" s="0" t="s">
+      <c r="C68" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D68" s="0" t="s">
+      <c r="D68" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E68" s="0" t="n">
+      <c r="E68" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="n">
+      <c r="A69" s="1" t="n">
         <v>390</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="B69" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C69" s="0" t="s">
+      <c r="C69" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D69" s="0" t="s">
+      <c r="D69" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E69" s="0" t="n">
+      <c r="E69" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="n">
+      <c r="A70" s="1" t="n">
         <v>391</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="B70" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C70" s="0" t="s">
+      <c r="C70" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D70" s="0" t="s">
+      <c r="D70" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E70" s="0" t="n">
+      <c r="E70" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="n">
+      <c r="A71" s="1" t="n">
         <v>392</v>
       </c>
-      <c r="B71" s="0" t="s">
+      <c r="B71" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C71" s="0" t="s">
+      <c r="C71" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D71" s="0" t="s">
+      <c r="D71" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E71" s="0" t="n">
+      <c r="E71" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="n">
+      <c r="A72" s="1" t="n">
         <v>383</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="B72" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C72" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D72" s="0" t="s">
+      <c r="C72" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E72" s="0" t="n">
+      <c r="E72" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="n">
+      <c r="A73" s="1" t="n">
         <v>384</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="B73" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C73" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D73" s="0" t="s">
+      <c r="C73" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E73" s="0" t="n">
+      <c r="E73" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="n">
+      <c r="A74" s="1" t="n">
         <v>385</v>
       </c>
-      <c r="B74" s="0" t="s">
+      <c r="B74" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C74" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D74" s="0" t="s">
+      <c r="C74" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E74" s="0" t="n">
+      <c r="E74" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="n">
+      <c r="A75" s="1" t="n">
         <v>386</v>
       </c>
-      <c r="B75" s="0" t="s">
+      <c r="B75" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C75" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D75" s="0" t="s">
+      <c r="C75" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E75" s="0" t="n">
+      <c r="E75" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="n">
+      <c r="A76" s="1" t="n">
         <v>387</v>
       </c>
-      <c r="B76" s="0" t="s">
+      <c r="B76" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C76" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D76" s="0" t="s">
+      <c r="C76" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E76" s="0" t="n">
+      <c r="E76" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="n">
+      <c r="A77" s="1" t="n">
         <v>388</v>
       </c>
-      <c r="B77" s="0" t="s">
+      <c r="B77" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C77" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D77" s="0" t="s">
+      <c r="C77" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E77" s="0" t="n">
+      <c r="E77" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="n">
+      <c r="A78" s="1" t="n">
         <v>389</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="B78" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C78" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D78" s="0" t="s">
+      <c r="C78" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E78" s="0" t="n">
+      <c r="E78" s="1" t="n">
         <v>87486451.7766232</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="n">
+      <c r="A79" s="1" t="n">
         <v>390</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="B79" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C79" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D79" s="0" t="s">
+      <c r="C79" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E79" s="0" t="n">
+      <c r="E79" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="n">
+      <c r="A80" s="1" t="n">
         <v>391</v>
       </c>
-      <c r="B80" s="0" t="s">
+      <c r="B80" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C80" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D80" s="0" t="s">
+      <c r="C80" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E80" s="0" t="n">
+      <c r="E80" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="n">
+      <c r="A81" s="1" t="n">
         <v>392</v>
       </c>
-      <c r="B81" s="0" t="s">
+      <c r="B81" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C81" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D81" s="0" t="s">
+      <c r="C81" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E81" s="0" t="n">
+      <c r="E81" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="n">
+      <c r="A82" s="1" t="n">
         <v>383</v>
       </c>
-      <c r="B82" s="0" t="s">
+      <c r="B82" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C82" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D82" s="0" t="s">
+      <c r="C82" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E82" s="0" t="n">
+      <c r="E82" s="1" t="n">
         <v>522600000</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="n">
+      <c r="A83" s="1" t="n">
         <v>384</v>
       </c>
-      <c r="B83" s="0" t="s">
+      <c r="B83" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C83" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D83" s="0" t="s">
+      <c r="C83" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E83" s="0" t="n">
+      <c r="E83" s="1" t="n">
         <v>356835000</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="n">
+      <c r="A84" s="1" t="n">
         <v>385</v>
       </c>
-      <c r="B84" s="0" t="s">
+      <c r="B84" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C84" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D84" s="0" t="s">
+      <c r="C84" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E84" s="0" t="n">
+      <c r="E84" s="1" t="n">
         <v>20100000</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="n">
+      <c r="A85" s="1" t="n">
         <v>386</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="B85" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C85" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D85" s="0" t="s">
+      <c r="C85" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E85" s="0" t="n">
+      <c r="E85" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="n">
+      <c r="A86" s="1" t="n">
         <v>387</v>
       </c>
-      <c r="B86" s="0" t="s">
+      <c r="B86" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C86" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D86" s="0" t="s">
+      <c r="C86" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E86" s="0" t="n">
+      <c r="E86" s="1" t="n">
         <v>324147272.727273</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="n">
+      <c r="A87" s="1" t="n">
         <v>388</v>
       </c>
-      <c r="B87" s="0" t="s">
+      <c r="B87" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C87" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D87" s="0" t="s">
+      <c r="C87" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E87" s="0" t="n">
+      <c r="E87" s="1" t="n">
         <v>80408685.7707509</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="n">
+      <c r="A88" s="1" t="n">
         <v>389</v>
       </c>
-      <c r="B88" s="0" t="s">
+      <c r="B88" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C88" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D88" s="0" t="s">
+      <c r="C88" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E88" s="0" t="n">
+      <c r="E88" s="1" t="n">
         <v>56813339.9688311</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="n">
+      <c r="A89" s="1" t="n">
         <v>390</v>
       </c>
-      <c r="B89" s="0" t="s">
+      <c r="B89" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C89" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D89" s="0" t="s">
+      <c r="C89" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E89" s="0" t="n">
+      <c r="E89" s="1" t="n">
         <v>142007376.623377</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="n">
+      <c r="A90" s="1" t="n">
         <v>391</v>
       </c>
-      <c r="B90" s="0" t="s">
+      <c r="B90" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C90" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D90" s="0" t="s">
+      <c r="C90" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D90" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E90" s="0" t="n">
+      <c r="E90" s="1" t="n">
         <v>74553872.7272727</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="n">
+      <c r="A91" s="1" t="n">
         <v>392</v>
       </c>
-      <c r="B91" s="0" t="s">
+      <c r="B91" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C91" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D91" s="0" t="s">
+      <c r="C91" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D91" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E91" s="0" t="n">
+      <c r="E91" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2942,7 +3052,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
@@ -2952,94 +3062,94 @@
       <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="121.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="121.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3053,7 +3163,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
@@ -3063,145 +3173,145 @@
       <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="27.87"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
         <v>383</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
         <v>384</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
         <v>385</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
         <v>386</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
         <v>387</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
         <v>388</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
         <v>389</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
         <v>390</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
         <v>391</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
         <v>392</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="1" t="s">
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="1" t="s">
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="1" t="s">
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="2" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3217,7 +3327,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
@@ -3227,83 +3337,83 @@
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="25.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.51"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>128000</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <v>2625000</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>128000</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <v>639000</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3319,7 +3429,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
@@ -3329,422 +3439,422 @@
       <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="25.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="25.12"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>383</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>386</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <v>5000</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="1" t="n">
         <v>640000000</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="1" t="n">
         <v>128000</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>384</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>388</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <v>198</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="1" t="n">
         <v>89100000</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="1" t="n">
         <v>450000</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>384</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>386</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="1" t="n">
         <v>2904</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4" s="1" t="n">
         <v>371712000</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="1" t="n">
         <v>128000</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>385</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>386</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="1" t="n">
         <v>900</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5" s="1" t="n">
         <v>115200000</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5" s="1" t="n">
         <v>128000</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="I5" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>386</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>387</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="1" t="n">
         <v>8804</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6" s="1" t="n">
         <v>1276580000</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6" s="1" t="n">
         <v>145000</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="I6" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>387</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <v>388</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="1" t="n">
         <v>3911.77727272727</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7" s="1" t="n">
         <v>1760299772.72727</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7" s="1" t="n">
         <v>450000</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="I7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>387</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <v>390</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="1" t="n">
         <v>690.313636363636</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8" s="1" t="n">
         <v>310641136.363636</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8" s="1" t="n">
         <v>450000</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="I8" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>388</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <v>389</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="1" t="n">
         <v>4109.77727272727</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9" s="1" t="n">
         <v>2141193959.09091</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9" s="1" t="n">
         <v>521000</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="I9" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>389</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <v>392</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="1" t="n">
         <v>98.616233766234</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10" s="1" t="n">
         <v>443773051.948053</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10" s="1" t="n">
         <v>4500000</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="I10" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>389</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <v>392</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="1" t="n">
         <v>3356.86607636363</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11" s="1" t="n">
         <v>2618355539.56363</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="H11" s="1" t="n">
         <v>780000</v>
       </c>
-      <c r="I11" s="0" t="s">
+      <c r="I11" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>390</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="1" t="n">
         <v>389</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="1" t="n">
         <v>98.616233766234</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="G12" s="1" t="n">
         <v>197232467.532468</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="H12" s="1" t="n">
         <v>2000000</v>
       </c>
-      <c r="I12" s="0" t="s">
+      <c r="I12" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>390</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="1" t="n">
         <v>391</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="1" t="n">
         <v>394.464935064935</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="G13" s="1" t="n">
         <v>788929870.12987</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="H13" s="1" t="n">
         <v>2000000</v>
       </c>
-      <c r="I13" s="0" t="s">
+      <c r="I13" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>391</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="1" t="n">
         <v>392</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14" s="1" t="n">
         <v>394.464935064935</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="G14" s="1" t="n">
         <v>1380627272.72727</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="H14" s="1" t="n">
         <v>3500000</v>
       </c>
-      <c r="I14" s="0" t="s">
+      <c r="I14" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3760,7 +3870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
@@ -3770,137 +3880,137 @@
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.26"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3916,7 +4026,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
@@ -3926,245 +4036,245 @@
       <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="0" width="17.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="31.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="1" width="17.87"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="n">
+    <row r="2" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="n">
         <v>383</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="7" t="n">
+      <c r="C2" s="8" t="n">
         <v>24038.4610424909</v>
       </c>
-      <c r="D2" s="7" t="n">
+      <c r="D2" s="8" t="n">
         <v>552200000</v>
       </c>
-      <c r="E2" s="7" t="n">
+      <c r="E2" s="8" t="n">
         <v>-27000000</v>
       </c>
-      <c r="F2" s="7" t="n">
+      <c r="F2" s="8" t="n">
         <v>56600000</v>
       </c>
-      <c r="G2" s="7" t="n">
+      <c r="G2" s="8" t="n">
         <v>610400000</v>
       </c>
     </row>
-    <row r="3" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="n">
+    <row r="3" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="n">
         <v>384</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="7" t="n">
+      <c r="C3" s="8" t="n">
         <v>400</v>
       </c>
-      <c r="D3" s="7" t="n">
+      <c r="D3" s="8" t="n">
         <v>418969600</v>
       </c>
-      <c r="E3" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7" t="n">
+      <c r="E3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8" t="n">
         <v>40984600.04125</v>
       </c>
-      <c r="G3" s="7" t="n">
+      <c r="G3" s="8" t="n">
         <v>470515399.95875</v>
       </c>
     </row>
-    <row r="4" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="n">
+    <row r="4" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="n">
         <v>385</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="7" t="n">
+      <c r="C4" s="8" t="n">
         <v>40</v>
       </c>
-      <c r="D4" s="7" t="n">
+      <c r="D4" s="8" t="n">
         <v>55080000</v>
       </c>
-      <c r="E4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7" t="n">
+      <c r="E4" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8" t="n">
         <v>11896666</v>
       </c>
-      <c r="G4" s="7" t="n">
+      <c r="G4" s="8" t="n">
         <v>103303334</v>
       </c>
     </row>
-    <row r="5" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="n">
+    <row r="5" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="n">
         <v>386</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="7" t="n">
+      <c r="C5" s="8" t="n">
         <v>1.00045454545455</v>
       </c>
-      <c r="D5" s="7" t="n">
+      <c r="D5" s="8" t="n">
         <v>61628000</v>
       </c>
-      <c r="E5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7" t="n">
+      <c r="E5" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8" t="n">
         <v>43619818.1818182</v>
       </c>
-      <c r="G5" s="7" t="n">
+      <c r="G5" s="8" t="n">
         <v>1232960181.81818</v>
       </c>
     </row>
-    <row r="6" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="n">
+    <row r="6" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="n">
         <v>387</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="7" t="n">
+      <c r="C6" s="8" t="n">
         <v>14.6733333333333</v>
       </c>
-      <c r="D6" s="7" t="n">
+      <c r="D6" s="8" t="n">
         <v>614779318</v>
       </c>
-      <c r="E6" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="7" t="n">
+      <c r="E6" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8" t="n">
         <v>290632045.454543</v>
       </c>
-      <c r="G6" s="7" t="n">
+      <c r="G6" s="8" t="n">
         <v>1780308863.63637</v>
       </c>
     </row>
-    <row r="7" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="n">
+    <row r="7" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="n">
         <v>388</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="7" t="n">
+      <c r="C7" s="8" t="n">
         <v>2.74</v>
       </c>
-      <c r="D7" s="7" t="n">
+      <c r="D7" s="8" t="n">
         <v>250919828</v>
       </c>
-      <c r="E7" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7" t="n">
+      <c r="E7" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8" t="n">
         <v>170511142.505599</v>
       </c>
-      <c r="G7" s="7" t="n">
+      <c r="G7" s="8" t="n">
         <v>1970682873.76482</v>
       </c>
     </row>
-    <row r="8" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="n">
+    <row r="8" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="n">
         <v>389</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="7" t="n">
+      <c r="C8" s="8" t="n">
         <v>13.6726544130031</v>
       </c>
-      <c r="D8" s="7" t="n">
+      <c r="D8" s="8" t="n">
         <v>409105128</v>
       </c>
-      <c r="E8" s="7" t="n">
+      <c r="E8" s="8" t="n">
         <v>87486451.7766232</v>
       </c>
-      <c r="F8" s="7" t="n">
+      <c r="F8" s="8" t="n">
         <v>264805336.303761</v>
       </c>
-      <c r="G8" s="7" t="n">
+      <c r="G8" s="8" t="n">
         <v>2797323360.41822</v>
       </c>
     </row>
-    <row r="9" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="n">
+    <row r="9" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="n">
         <v>390</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="7" t="n">
+      <c r="C9" s="8" t="n">
         <v>13.8</v>
       </c>
-      <c r="D9" s="7" t="n">
+      <c r="D9" s="8" t="n">
         <v>600079783</v>
       </c>
-      <c r="E9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="7" t="n">
+      <c r="E9" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8" t="n">
         <v>352059954.545454</v>
       </c>
-      <c r="G9" s="7" t="n">
+      <c r="G9" s="8" t="n">
         <v>634102383.116884</v>
       </c>
     </row>
-    <row r="10" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="n">
+    <row r="10" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="n">
         <v>391</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="7" t="n">
+      <c r="C10" s="8" t="n">
         <v>300.763371915892</v>
       </c>
-      <c r="D10" s="7" t="n">
+      <c r="D10" s="8" t="n">
         <v>590916362</v>
       </c>
-      <c r="E10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="7" t="n">
+      <c r="E10" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="8" t="n">
         <v>516362489.298698</v>
       </c>
-      <c r="G10" s="7" t="n">
+      <c r="G10" s="8" t="n">
         <v>864264783.428572</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="7"/>
-      <c r="F12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="F12" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4178,190 +4288,190 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="29.38"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" s="0" t="s">
+      <c r="B2" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="7" t="n">
+      <c r="B3" s="8" t="n">
         <v>24960000</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B4" s="7" t="n">
-        <v>2015</v>
-      </c>
-      <c r="C4" s="0" t="s">
+      <c r="B4" s="8" t="n">
+        <v>7396218</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B5" s="7" t="n">
+      <c r="B5" s="8" t="n">
         <v>25245000</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="7" t="n">
+      <c r="B6" s="8" t="n">
         <v>86617357</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B7" s="7" t="n">
+      <c r="B7" s="8" t="n">
         <v>37867500</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B8" s="7" t="n">
+      <c r="B8" s="8" t="n">
         <v>18216000</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B9" s="7" t="n">
+      <c r="B9" s="8" t="n">
         <v>17928000</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B10" s="7" t="n">
+      <c r="B10" s="8" t="n">
         <v>18342621</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B11" s="7" t="n">
+      <c r="B11" s="8" t="n">
         <v>142548778</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B12" s="7" t="n">
+      <c r="B12" s="8" t="n">
         <v>38785941</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B13" s="7" t="n">
+      <c r="B13" s="8" t="n">
         <v>229964451</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B14" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" s="0" t="s">
+      <c r="B14" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="7" t="n">
+      <c r="B15" s="8" t="n">
         <v>3062128591.51168</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="7"/>
+      <c r="B17" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4375,7 +4485,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
@@ -4385,178 +4495,178 @@
       <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="78.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="33.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="78.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="33.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="28.38"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>383</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="7" t="n">
+      <c r="C2" s="8" t="n">
         <v>56600000</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>384</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="7" t="n">
+      <c r="C3" s="8" t="n">
         <v>40984600</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>385</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="7" t="n">
+      <c r="C4" s="8" t="n">
         <v>11896666</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>386</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="7" t="n">
+      <c r="C5" s="8" t="n">
         <v>43619818</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>387</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="7" t="n">
+      <c r="C6" s="8" t="n">
         <v>290632045</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>388</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="7" t="n">
+      <c r="C7" s="8" t="n">
         <v>170511143</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>389</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="7" t="n">
+      <c r="C8" s="8" t="n">
         <v>264805336</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>390</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="7" t="n">
+      <c r="C9" s="8" t="n">
         <v>352059955</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>391</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="7" t="n">
+      <c r="C10" s="8" t="n">
         <v>516362489</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="7" t="n">
+      <c r="C11" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C12" s="7" t="n">
+      <c r="C12" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="7" t="n">
+      <c r="C13" s="8" t="n">
         <v>168253967</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C14" s="7" t="n">
+      <c r="C14" s="8" t="n">
         <v>1577465548</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C15" s="7" t="n">
+      <c r="C15" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C16" s="7" t="n">
+      <c r="C16" s="8" t="n">
         <v>60486452</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="7"/>
+      <c r="C18" s="8"/>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="9"/>
-      <c r="C20" s="7"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
